--- a/bugs/25/bugs-source.xlsx
+++ b/bugs/25/bugs-source.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
   <si>
     <t>Bug ID</t>
   </si>
@@ -107,6 +107,56 @@
   </si>
   <si>
     <t>iftop-1.0-0.7.pre4.el6.x86_64</t>
+  </si>
+  <si>
+    <t>Reopened</t>
+  </si>
+  <si>
+    <t>NetworkManager doesn&amp;apos;t prompt for password</t>
+  </si>
+  <si>
+    <t>NetworkManager-openconnect</t>
+  </si>
+  <si>
+    <t>mate-screensaver</t>
+  </si>
+  <si>
+    <t>0day in game-music-emu (CVE-2016-9959)</t>
+  </si>
+  <si>
+    <t>transparent lock screen on multiple/single screens with blank screensaver theme</t>
+  </si>
+  <si>
+    <t>game-music-emu-0.6.0-8.fc24.x86_64</t>
+  </si>
+  <si>
+    <t>With FUTURE system crypto policy, connections to github, getfedora.org fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gnutls </t>
+  </si>
+  <si>
+    <t>dnf check-updates accepts random command line options without generating an error. If a random option is specified non security options are not displayed.</t>
+  </si>
+  <si>
+    <t>dnf-1.1.10-4.fc25.noarch</t>
+  </si>
+  <si>
+    <t>sshd segfaults every odd public key auth login</t>
+  </si>
+  <si>
+    <t>openssh</t>
+  </si>
+  <si>
+    <t>/usr/lib64/security/pam_unix.so
+monitor.c
+sshd.c</t>
+  </si>
+  <si>
+    <t>CVE-2016-9962 docker: Insecure opening of file-descriptor allows privilege escalation [fedora-all]</t>
+  </si>
+  <si>
+    <t>docker-1.12.6-3.git51ef5a8.fc25</t>
   </si>
 </sst>
 </file>
@@ -432,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -443,7 +493,7 @@
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="103" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="45.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -585,6 +635,167 @@
         <v>15</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1370858</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1397900</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1405406</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1405959</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1409389</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1409433</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1412147</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bugs/25/bugs-source.xlsx
+++ b/bugs/25/bugs-source.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="63">
   <si>
     <t>Bug ID</t>
   </si>
@@ -157,6 +157,77 @@
   </si>
   <si>
     <t>docker-1.12.6-3.git51ef5a8.fc25</t>
+  </si>
+  <si>
+    <t>Regression: Atomic DBus VulnerabilityInfo API hangs loading results from /var/lib/atomic</t>
+  </si>
+  <si>
+    <t>atomic-1.14.1-1.fc25.x86_64</t>
+  </si>
+  <si>
+    <t>java-1.8.0-openjdk: NSS 3.28 update causes core dump</t>
+  </si>
+  <si>
+    <t>java-1.8.0-openjdk-1.8.0.111-5.b16.fc25.x86_64</t>
+  </si>
+  <si>
+    <t>java.security</t>
+  </si>
+  <si>
+    <t>PHP doesn&amp;apos;t fallback to urandom when getrandom is not available</t>
+  </si>
+  <si>
+    <t>php-7.0.17-1.fc25</t>
+  </si>
+  <si>
+    <t>rpc.gssd fails to call into gssproxy</t>
+  </si>
+  <si>
+    <t>selinux-policy</t>
+  </si>
+  <si>
+    <t>rpc.gssd</t>
+  </si>
+  <si>
+    <t>CVE-2017-5428 firefox: Mozilla: integer overflow in createImageBitmap() (MFSA 2017-08)</t>
+  </si>
+  <si>
+    <t>firefox-52.0-6.fc25</t>
+  </si>
+  <si>
+    <t>createImageBitmap()</t>
+  </si>
+  <si>
+    <t>kexec: failed load kdump kernel - Can&amp;apos;t find kernel text map area from kcore</t>
+  </si>
+  <si>
+    <t>kernel-4.10.8-200.fc25.x86_64
+kexec-tools-2.0.13-7.fc25.1.x86_64</t>
+  </si>
+  <si>
+    <t>kernel.c</t>
+  </si>
+  <si>
+    <t>cjdroute and others fail to call sodium_init()</t>
+  </si>
+  <si>
+    <t>cjdns</t>
+  </si>
+  <si>
+    <t>contrib/c/privatetopublic.c 
+contrib/c/sybilsim.c 
+contrib/c/mkpasswd.c 
+contrib/c/makekeys.c 
+contrib/c/publictoip6.c 
+test/testcjdroute.c 
+crypto/random/randombytes.c 
+client/cjdroute2.c</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>NetworkManager GUI doesn&amp;apos;t allow for secure configuration of WPA(2) Enterprise networks (802.1x) [lr/tls-domain-suffix-match-rh1457542</t>
   </si>
 </sst>
 </file>
@@ -482,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -796,6 +867,213 @@
         <v>15</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1412189</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1414010</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1415137</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1427255</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1430963</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1433819</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1440587</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1455317</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1457542</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
